--- a/Employee_Reports35/Rizardo Villalobos Q0048.xlsx
+++ b/Employee_Reports35/Rizardo Villalobos Q0048.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -609,11 +609,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>-89</v>
+        <v>-90</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">

--- a/Employee_Reports35/Rizardo Villalobos Q0048.xlsx
+++ b/Employee_Reports35/Rizardo Villalobos Q0048.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -609,11 +609,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>-90</v>
+        <v>-91</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
